--- a/0_1_Output_Data/5_ifoCAST_error_series_GVA_full/ifoCAst_errors_full_first_GVA.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_GVA_full/ifoCAst_errors_full_first_GVA.xlsx
@@ -2235,6 +2235,9 @@
       <c r="C136">
         <v>0.4412813462360053</v>
       </c>
+      <c r="D136">
+        <v>0.7254492243564907</v>
+      </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
@@ -2243,6 +2246,9 @@
       <c r="C137">
         <v>0.4689256712360053</v>
       </c>
+      <c r="D137">
+        <v>0.7215746373564907</v>
+      </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
@@ -2251,6 +2257,9 @@
       <c r="C138">
         <v>0.2280757452360053</v>
       </c>
+      <c r="D138">
+        <v>0.5311946523564907</v>
+      </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
@@ -2259,6 +2268,9 @@
       <c r="C139">
         <v>0.3139414512360053</v>
       </c>
+      <c r="D139">
+        <v>0.5539812373564907</v>
+      </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
@@ -2267,6 +2279,9 @@
       <c r="B140">
         <v>0.02261627023600529</v>
       </c>
+      <c r="C140">
+        <v>0.1753415943564907</v>
+      </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
@@ -2275,25 +2290,40 @@
       <c r="B141">
         <v>-0.0212972287639947</v>
       </c>
+      <c r="C141">
+        <v>0.2651053283564908</v>
+      </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="C142">
+        <v>0.08763596535649075</v>
+      </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="C143">
+        <v>0.1003532183564907</v>
+      </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="C144">
+        <v>-0.02418658464350926</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="C145">
+        <v>0.2001520573564908</v>
       </c>
     </row>
   </sheetData>
